--- a/lavarel/wp/tools/wps.xlsx
+++ b/lavarel/wp/tools/wps.xlsx
@@ -1,206 +1,160 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\felix\wp\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="1"/>
+    <workbookView windowWidth="22943" windowHeight="9924" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Readme" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41">
   <si>
     <t>功能点</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工时(H)</t>
   </si>
   <si>
     <t>源码分析</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>工时(H)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>后台-实时监控-在线用户</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>后台-实时监控-客户持仓监控</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>后台-实时监控-会员保证金监控</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>后台-实时监控-客户风控分组</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后台-实时监控-报牌价</t>
   </si>
   <si>
     <t>后台-报表管理-会员资金报表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>后台-报表管理-会员成交报表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>后台-报表管理-机构资金报表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>后台-报表管理-机构成交报表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>后台-报表管理-客户资金报表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>后台-报表管理-客户成交报表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>后台-统计查询-成交明细查询</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>后台-统计查询-资金流水查询</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>后台-登录-验证码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>后台-提现审核</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前台-返佣记录</t>
   </si>
   <si>
     <t>前台-交易记录</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>TOTAL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>后台-实时监控-报牌价</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>前台-返佣记录</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>环境</t>
+  </si>
+  <si>
+    <t>WAMPServer-2.5</t>
   </si>
   <si>
     <t>启动</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>php artisan server</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>调试</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>修改php.ini</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>环境</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>WAMPServer-2.5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>xdebug.remode_enable=on</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>xdebug.remode_autostart=on</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>部署</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>apache</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>根目录指向为public</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>API</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>比特币</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>http://api.huobi.com/staticmarket/ticker_btc_json.js</t>
+  </si>
+  <si>
+    <t>外汇行情</t>
+  </si>
+  <si>
+    <t>http://market.forex.com.cn/</t>
+  </si>
+  <si>
+    <t>http://market.forex.com.cn/zhongfuMarketIndex/findAllPriceAjax.do</t>
+  </si>
+  <si>
+    <t>短信</t>
+  </si>
+  <si>
+    <t>SMS_KEY=a1650136971e9c36bad66e25c6a287a7</t>
+  </si>
+  <si>
+    <t>SMS_BASE=https://api.dingdongcloud.com/v1/sms/sendyzm?apikey=#1#&amp;mobile=#2#&amp;content=#3#</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <strike/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -208,18 +162,371 @@
       <sz val="11"/>
       <color rgb="FFCE9178"/>
       <name val="Consolas"/>
-      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -232,17 +539,17 @@
       <right/>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -250,17 +557,17 @@
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top/>
@@ -270,7 +577,7 @@
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom/>
@@ -278,62 +585,310 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -349,46 +904,82 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
@@ -410,15 +1001,15 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:blip r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4210050" y="2276475"/>
-          <a:ext cx="14752381" cy="1761905"/>
+          <a:off x="3849370" y="2207895"/>
+          <a:ext cx="13243560" cy="1704340"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -448,15 +1039,15 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:blip r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4219575" y="962025"/>
-          <a:ext cx="14685714" cy="1333333"/>
+          <a:off x="3858895" y="933450"/>
+          <a:ext cx="13176885" cy="1292860"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -511,7 +1102,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -546,7 +1137,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -721,246 +1312,243 @@
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="29.375" customWidth="1"/>
+    <col min="1" max="1" width="29.3796296296296" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:2">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+      <c r="B2" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="7">
+        <v>2</v>
+      </c>
+      <c r="C3" s="8">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="7">
         <v>1</v>
       </c>
-      <c r="B2" s="3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" s="11">
         <v>3</v>
       </c>
-      <c r="B3" s="5">
-        <v>2</v>
-      </c>
-      <c r="C3" s="11">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" s="4" t="s">
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="B18" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B19" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="B20" s="9">
+      <c r="B20" s="13">
         <f>SUM(B2:B19)</f>
         <v>40</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="2"/>
   <cols>
-    <col min="2" max="2" width="16.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="58.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.6296296296296" customWidth="1"/>
+    <col min="3" max="3" width="98.7777777777778" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
         <v>25</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B3" t="s">
         <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3" t="s">
-        <v>24</v>
       </c>
       <c r="C3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="3:3">
       <c r="C4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>29</v>
       </c>
@@ -971,19 +1559,49 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="7" ht="14.4" spans="1:3">
       <c r="A7" t="s">
         <v>32</v>
       </c>
       <c r="B7" t="s">
         <v>33</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="1" t="s">
         <v>34</v>
       </c>
     </row>
+    <row r="8" spans="2:3">
+      <c r="B8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="3:3">
+      <c r="C9" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3">
+      <c r="B10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="3:3">
+      <c r="C11" t="s">
+        <v>40</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <hyperlinks>
+    <hyperlink ref="C9" r:id="rId1" display="http://market.forex.com.cn/zhongfuMarketIndex/findAllPriceAjax.do"/>
+    <hyperlink ref="C8" r:id="rId2" display="http://market.forex.com.cn/"/>
+  </hyperlinks>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>